--- a/Dropout analysis.xlsx
+++ b/Dropout analysis.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dor/Desktop/network-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA7B7CE-6D9F-0D44-9DEC-A5464944E1D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979CB80C-B21F-1843-9631-48EC504D2171}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{86BD3BBC-0022-8B40-B071-65728349A685}"/>
+    <workbookView xWindow="13380" yWindow="0" windowWidth="15420" windowHeight="18000" activeTab="4" xr2:uid="{86BD3BBC-0022-8B40-B071-65728349A685}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Early Stopping" sheetId="3" r:id="rId3"/>
     <sheet name="Dropout" sheetId="4" r:id="rId4"/>
+    <sheet name="Dropout-Early Stopping" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$G$6:$G$1750</definedName>
@@ -24,10 +25,6 @@
     <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$H$6:$H$1750</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$I$1:$I$5</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$I$6:$I$1750</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Early Stopping'!$V$12</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Early Stopping'!$V$13:$V$38</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Early Stopping'!$W$12</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Early Stopping'!$W$13:$W$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="934">
   <si>
     <t>accuracy: 85.71%</t>
   </si>
@@ -2409,6 +2406,438 @@
   </si>
   <si>
     <t>And overfit of 49.80% (+/- 0.79%)</t>
+  </si>
+  <si>
+    <t>Restoring model weights from the end of the best epoch.</t>
+  </si>
+  <si>
+    <t>Epoch 00069: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00088: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00165: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 94.23%</t>
+  </si>
+  <si>
+    <t>Epoch 00256: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00144: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00129: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00164: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00182: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00261: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 95.93%</t>
+  </si>
+  <si>
+    <t>Epoch 00128: early stopping</t>
+  </si>
+  <si>
+    <t>87.39% (+/- 2.86%)</t>
+  </si>
+  <si>
+    <t>And overfit of 92.42% (+/- 2.72%)</t>
+  </si>
+  <si>
+    <t>Epoch 00097: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00131: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00137: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00152: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00201: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00117: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 89.96%</t>
+  </si>
+  <si>
+    <t>Epoch 00115: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00099: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00108: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 91.06%</t>
+  </si>
+  <si>
+    <t>Epoch 00105: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 89.97%</t>
+  </si>
+  <si>
+    <t>85.87% (+/- 1.93%)</t>
+  </si>
+  <si>
+    <t>And overfit of 89.58% (+/- 1.84%)</t>
+  </si>
+  <si>
+    <t>Epoch 00100: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00109: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00064: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00102: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00127: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00149: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00119: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00142: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 90.96%</t>
+  </si>
+  <si>
+    <t>Epoch 00133: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 89.77%</t>
+  </si>
+  <si>
+    <t>86.05% (+/- 2.46%)</t>
+  </si>
+  <si>
+    <t>And overfit of 88.51% (+/- 2.28%)</t>
+  </si>
+  <si>
+    <t>Epoch 00121: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00092: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00125: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00113: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00161: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00110: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 89.18%</t>
+  </si>
+  <si>
+    <t>Epoch 00070: early stopping</t>
+  </si>
+  <si>
+    <t>86.49% (+/- 1.66%)</t>
+  </si>
+  <si>
+    <t>And overfit of 89.40% (+/- 1.17%)</t>
+  </si>
+  <si>
+    <t>Overfit: 74.35%</t>
+  </si>
+  <si>
+    <t>Epoch 00079: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00104: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00185: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00074: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00084: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 77.93%</t>
+  </si>
+  <si>
+    <t>Epoch 00187: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 88.88%</t>
+  </si>
+  <si>
+    <t>accuracy: 78.38%</t>
+  </si>
+  <si>
+    <t>81.84% (+/- 4.83%)</t>
+  </si>
+  <si>
+    <t>And overfit of 84.08% (+/- 4.85%)</t>
+  </si>
+  <si>
+    <t>Epoch 00171: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00094: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00073: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00209: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 81.33%</t>
+  </si>
+  <si>
+    <t>83.63% (+/- 3.06%)</t>
+  </si>
+  <si>
+    <t>And overfit of 84.81% (+/- 5.12%)</t>
+  </si>
+  <si>
+    <t>Epoch 00082: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00195: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00159: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00162: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00122: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00081: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00178: early stopping</t>
+  </si>
+  <si>
+    <t>85.33% (+/- 3.84%)</t>
+  </si>
+  <si>
+    <t>And overfit of 87.26% (+/- 2.00%)</t>
+  </si>
+  <si>
+    <t>Overfit: 78.93%</t>
+  </si>
+  <si>
+    <t>Epoch 00112: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00136: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00174: early stopping</t>
+  </si>
+  <si>
+    <t>84.88% (+/- 3.07%)</t>
+  </si>
+  <si>
+    <t>And overfit of 85.56% (+/- 2.49%)</t>
+  </si>
+  <si>
+    <t>Epoch 00170: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00077: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00114: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00148: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00072: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 83.02%</t>
+  </si>
+  <si>
+    <t>82.37% (+/- 4.07%)</t>
+  </si>
+  <si>
+    <t>And overfit of 84.73% (+/- 3.11%)</t>
+  </si>
+  <si>
+    <t>Epoch 00095: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 88.18%</t>
+  </si>
+  <si>
+    <t>accuracy: 80.18%</t>
+  </si>
+  <si>
+    <t>84.87% (+/- 3.70%)</t>
+  </si>
+  <si>
+    <t>And overfit of 86.71% (+/- 1.59%)</t>
+  </si>
+  <si>
+    <t>Epoch 00091: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00166: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00140: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00076: early stopping</t>
+  </si>
+  <si>
+    <t>83.36% (+/- 3.75%)</t>
+  </si>
+  <si>
+    <t>And overfit of 86.31% (+/- 1.38%)</t>
+  </si>
+  <si>
+    <t>Epoch 00138: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00120: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00126: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00089: early stopping</t>
+  </si>
+  <si>
+    <t>85.51% (+/- 2.02%)</t>
+  </si>
+  <si>
+    <t>And overfit of 85.97% (+/- 0.98%)</t>
+  </si>
+  <si>
+    <t>Epoch 00176: early stopping</t>
+  </si>
+  <si>
+    <t>84.43% (+/- 3.55%)</t>
+  </si>
+  <si>
+    <t>And overfit of 85.74% (+/- 1.97%)</t>
+  </si>
+  <si>
+    <t>Epoch 00163: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00167: early stopping</t>
+  </si>
+  <si>
+    <t>80.24% (+/- 3.72%)</t>
+  </si>
+  <si>
+    <t>And overfit of 83.10% (+/- 3.03%)</t>
+  </si>
+  <si>
+    <t>Epoch 00156: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00151: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 82.92%</t>
+  </si>
+  <si>
+    <t>Overfit: 79.05%</t>
+  </si>
+  <si>
+    <t>83.44% (+/- 4.88%)</t>
+  </si>
+  <si>
+    <t>And overfit of 84.10% (+/- 3.02%)</t>
+  </si>
+  <si>
+    <t>Epoch 00130: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00172: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 72.27%</t>
+  </si>
+  <si>
+    <t>Epoch 00189: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00106: early stopping</t>
+  </si>
+  <si>
+    <t>80.14% (+/- 6.57%)</t>
+  </si>
+  <si>
+    <t>And overfit of 81.52% (+/- 4.19%)</t>
+  </si>
+  <si>
+    <t>Epoch 00071: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00075: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00123: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00068: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00132: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 81.73%</t>
+  </si>
+  <si>
+    <t>82.91% (+/- 4.05%)</t>
+  </si>
+  <si>
+    <t>And overfit of 82.63% (+/- 2.04%)</t>
+  </si>
+  <si>
+    <t>Epoch 00058: early stopping</t>
+  </si>
+  <si>
+    <t>Epoch 00101: early stopping</t>
+  </si>
+  <si>
+    <t>Overfit: 73.56%</t>
+  </si>
+  <si>
+    <t>Epoch 00169: early stopping</t>
   </si>
 </sst>
 </file>
@@ -6614,6 +7043,1406 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dropout!$AA$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dropout!$Z$16:$Z$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dropout!$AA$16:$AA$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.90069999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90249999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90790000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90159999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89080000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89170000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88730000000000009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88280000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85950000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85959999999999992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.81940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7863</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.80230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.64769999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.50970000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.49729999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42E1-2E46-9C66-989EDD6C2E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dropout!$AB$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Overfit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dropout!$Z$16:$Z$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dropout!$AB$16:$AB$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.98580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93189999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90990000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88429999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86829999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86659999999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.82599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.79310000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79519999999999991</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63950000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42E1-2E46-9C66-989EDD6C2E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1906488799"/>
+        <c:axId val="1906634303"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1906488799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1906634303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1906634303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1906488799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dropout-Early Stopping'!$AA$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acc.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dropout-Early Stopping'!$Z$16:$Z$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dropout-Early Stopping'!$AA$16:$AA$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.87390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89580000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83630000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85329999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85509999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84430000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82909999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.78979999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.71830000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75670000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74150000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65539999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.55710000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2608-004B-B1D1-FE1EF8A3F740}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dropout-Early Stopping'!$AB$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Overfit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dropout-Early Stopping'!$Z$16:$Z$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dropout-Early Stopping'!$AB$16:$AB$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.92420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89580000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8851</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87260000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85560000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84730000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86709999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85740000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.81520000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.80159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.73950000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.73019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71630000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.66049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.63649999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.55430000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2608-004B-B1D1-FE1EF8A3F740}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1908358143"/>
+        <c:axId val="1907709311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1908358143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1907709311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1907709311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1908358143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6775,6 +8604,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9394,6 +11303,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9569,6 +12510,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A507A85E-45F4-6A48-ADF3-AC13BFC884CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>479776</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>81845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>733777</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>155222</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168C62ED-2F80-094A-AD51-E16A625DC04A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>465667</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>126777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>91351</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>62609</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4C752B1-B02C-DE4D-AFC5-184A66997418}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21669,7 +24692,7 @@
   <dimension ref="A1:X1148"/>
   <sheetViews>
     <sheetView topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="V12" sqref="V12:X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27461,230 +30484,484 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C7D3AC-3F9E-814D-8630-D788D76B74AA}">
-  <dimension ref="A1:A1004"/>
+  <dimension ref="A1:AB1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1004"/>
+    <sheetView topLeftCell="V1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="X28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0.98580000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z17">
+        <v>0.02</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0.98470000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z18">
+        <v>0.04</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z19">
+        <v>0.05</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0.97709999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z20">
+        <v>0.11</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0.95569999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z21">
+        <v>0.15</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>0.94510000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z22">
+        <v>0.17</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0.93530000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z23">
+        <v>0.19</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0.93640000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z24">
+        <v>0.2</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0.93599999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z25">
+        <v>0.21</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0.93030000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z26">
+        <v>0.23</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0.93189999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z27">
+        <v>0.25</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0.88730000000000009</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0.9265000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z28">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0.89090000000000003</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0.91620000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z29">
+        <v>0.33</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>0.90990000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z30">
+        <v>0.38</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>0.87380000000000002</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z31">
+        <v>0.44</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>0.89739999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z32">
+        <v>0.5</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>0.88429999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>0.88119999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z34">
+        <v>0.6</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>0.87539999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z35">
+        <v>0.65</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>0.86829999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z36">
+        <v>0.7</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0.85959999999999992</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>0.86659999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z37">
+        <v>0.75</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0.81940000000000002</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z38">
+        <v>0.8</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0.7863</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>0.79310000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z39">
+        <v>0.85</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0.80230000000000001</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>0.79519999999999991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z40">
+        <v>0.9</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0.64769999999999994</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>0.63950000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z41">
+        <v>0.95</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0.50970000000000004</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="Z42">
+        <v>0.97</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0.49729999999999996</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>470</v>
       </c>
@@ -32221,61 +35498,5208 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{3F4F33A7-56C8-C942-8510-DE955757E4FC}"/>
-    <hyperlink ref="A10" r:id="rId2" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{3E66BB19-4163-2B49-83ED-9FF5BFA553FD}"/>
-    <hyperlink ref="A42" r:id="rId3" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{9A48F16B-F051-1B41-9844-FD50DD3257F2}"/>
-    <hyperlink ref="A47" r:id="rId4" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{1CBD8FDC-877F-B742-B135-C6D37533BE63}"/>
-    <hyperlink ref="A79" r:id="rId5" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{2A207D90-E281-414A-B560-E478DB5F9FE5}"/>
-    <hyperlink ref="A84" r:id="rId6" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{BD523F9F-2DF3-4645-B37C-0819186A10F1}"/>
-    <hyperlink ref="A116" r:id="rId7" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{C36B77F2-66E9-AB48-B9B0-21692F19AB9C}"/>
-    <hyperlink ref="A121" r:id="rId8" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{E3B9E863-B0CB-8A4F-AAFF-BE31032DFBCF}"/>
-    <hyperlink ref="A153" r:id="rId9" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{300E5903-F065-5840-BC5F-1B3FF84D4946}"/>
-    <hyperlink ref="A158" r:id="rId10" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{64DB6F4A-5581-884E-BAF3-A3AAE2575560}"/>
-    <hyperlink ref="A190" r:id="rId11" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{BA5E6AB3-C11E-E54D-9CBD-9F29D6582E3F}"/>
-    <hyperlink ref="A195" r:id="rId12" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{9EA2943F-B647-6E48-9034-B69AF0CEE23A}"/>
-    <hyperlink ref="A227" r:id="rId13" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{1BEC2DD0-B3E0-2944-9F75-EC70AE2C11EB}"/>
-    <hyperlink ref="A232" r:id="rId14" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{7FEB1ADB-78B6-D048-AA2D-D6D35B952901}"/>
-    <hyperlink ref="A264" r:id="rId15" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{EBED3795-FF62-0E40-84BC-26AAE2325ADF}"/>
-    <hyperlink ref="A269" r:id="rId16" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{76AFBC1F-C8E3-1944-B7D5-0FFF5BA521F2}"/>
-    <hyperlink ref="A301" r:id="rId17" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{1B8DA386-5C0C-6942-A448-3E19EF1D31D6}"/>
-    <hyperlink ref="A306" r:id="rId18" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{EB62B26F-26C2-564D-AACD-22F16335D644}"/>
-    <hyperlink ref="A338" r:id="rId19" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{8BD7A0BE-08C5-3A41-8017-F2C94E75C7AE}"/>
-    <hyperlink ref="A343" r:id="rId20" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{E72E4F80-76EC-ED4D-9D26-A69C88C1A6AC}"/>
-    <hyperlink ref="A375" r:id="rId21" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{ADFFEB5B-8877-C346-92F3-83171FE048D8}"/>
-    <hyperlink ref="A380" r:id="rId22" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{4A6728AE-D81F-7845-A36D-5BC63010AC9B}"/>
-    <hyperlink ref="A412" r:id="rId23" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{5463C4A3-9990-224F-AA76-6A13FBAFE39A}"/>
-    <hyperlink ref="A417" r:id="rId24" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{20488598-FFF9-6E4E-86BB-45DC9E2830E8}"/>
-    <hyperlink ref="A449" r:id="rId25" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{E4775CE1-D508-B948-8B20-7CE83C188332}"/>
-    <hyperlink ref="A454" r:id="rId26" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{EA3C2E61-8C2F-BC4C-AFE1-B71D51E03C60}"/>
-    <hyperlink ref="A486" r:id="rId27" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{FE98FDB3-5BE8-FC4F-B770-C1966572C075}"/>
-    <hyperlink ref="A491" r:id="rId28" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{95998714-371A-0141-96D3-EB3F85A2B388}"/>
-    <hyperlink ref="A523" r:id="rId29" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{F6401BC0-B802-924C-942D-5A7F8C2CDA1E}"/>
-    <hyperlink ref="A528" r:id="rId30" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{4C217684-D34C-8A43-B0A1-6858D70FA70E}"/>
-    <hyperlink ref="A560" r:id="rId31" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{B37904DA-E324-E149-B847-F3D406AB10E4}"/>
-    <hyperlink ref="A565" r:id="rId32" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{FBD5675F-22AA-F747-BE9A-42CFD5BE2979}"/>
-    <hyperlink ref="A597" r:id="rId33" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{30C4905D-62CA-5440-B4E4-3BCCAB35317E}"/>
-    <hyperlink ref="A602" r:id="rId34" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{4B1E51A7-164E-5F4F-9388-B1ADC10C564E}"/>
-    <hyperlink ref="A635" r:id="rId35" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{E0E7FC9D-FAC1-8B42-A304-D6E67B9BF66C}"/>
-    <hyperlink ref="A640" r:id="rId36" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{01E59262-DB99-184E-ACDF-785BE8DA4FD7}"/>
-    <hyperlink ref="A676" r:id="rId37" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{46EF6C35-FF9C-5F4C-A2BF-09658E763D40}"/>
-    <hyperlink ref="A681" r:id="rId38" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{8FEEB2F0-2A3E-8E4F-924F-B562960B2E70}"/>
-    <hyperlink ref="A713" r:id="rId39" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{C1233F43-76AE-A74F-824A-CDB8162696B0}"/>
-    <hyperlink ref="A718" r:id="rId40" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{20203A10-4EA5-A444-81CF-A49353E1A41F}"/>
-    <hyperlink ref="A750" r:id="rId41" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{F0631D7E-EED3-E545-8D11-9176CC441567}"/>
-    <hyperlink ref="A755" r:id="rId42" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{FC16DFAA-F6FE-8844-B298-7DAF4A55E8C1}"/>
-    <hyperlink ref="A787" r:id="rId43" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{237DB83B-7DFC-4940-8368-3EBEAB391B83}"/>
-    <hyperlink ref="A792" r:id="rId44" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{ECD0B7C1-5B98-A846-AF3D-7D1FCBC6D609}"/>
-    <hyperlink ref="A824" r:id="rId45" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{42B91912-2984-5245-ACCF-EE6604C4D2DE}"/>
-    <hyperlink ref="A829" r:id="rId46" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{D85CB562-1617-6445-B80D-7B47C906AB4D}"/>
-    <hyperlink ref="A861" r:id="rId47" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{16ACB7FB-B394-B741-930F-853316A57377}"/>
-    <hyperlink ref="A866" r:id="rId48" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{CD1C8C52-78CC-AC42-9B5D-F899D1D29CB8}"/>
-    <hyperlink ref="A898" r:id="rId49" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{5046D040-D27E-4348-AEAF-0FE39663C17A}"/>
-    <hyperlink ref="A903" r:id="rId50" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{9160E715-05DA-A846-8EB2-CA5CB707E1B0}"/>
-    <hyperlink ref="A935" r:id="rId51" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{942D3E5A-8640-3B4A-898B-1A46E9E7CD43}"/>
-    <hyperlink ref="A940" r:id="rId52" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{F0A6283C-2879-0147-95FD-2CE28DC47B79}"/>
-    <hyperlink ref="A972" r:id="rId53" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{7B53FF2C-D96D-1541-9A15-CDF875DD2B74}"/>
-    <hyperlink ref="A977" r:id="rId54" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{D8804156-F431-4845-9CD9-1B1317D2A905}"/>
+    <hyperlink ref="A977" r:id="rId1" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{D8804156-F431-4845-9CD9-1B1317D2A905}"/>
+    <hyperlink ref="A972" r:id="rId2" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{7B53FF2C-D96D-1541-9A15-CDF875DD2B74}"/>
+    <hyperlink ref="A940" r:id="rId3" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{F0A6283C-2879-0147-95FD-2CE28DC47B79}"/>
+    <hyperlink ref="A935" r:id="rId4" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{942D3E5A-8640-3B4A-898B-1A46E9E7CD43}"/>
+    <hyperlink ref="A903" r:id="rId5" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{9160E715-05DA-A846-8EB2-CA5CB707E1B0}"/>
+    <hyperlink ref="A898" r:id="rId6" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{5046D040-D27E-4348-AEAF-0FE39663C17A}"/>
+    <hyperlink ref="A866" r:id="rId7" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{CD1C8C52-78CC-AC42-9B5D-F899D1D29CB8}"/>
+    <hyperlink ref="A861" r:id="rId8" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{16ACB7FB-B394-B741-930F-853316A57377}"/>
+    <hyperlink ref="A829" r:id="rId9" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{D85CB562-1617-6445-B80D-7B47C906AB4D}"/>
+    <hyperlink ref="A824" r:id="rId10" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{42B91912-2984-5245-ACCF-EE6604C4D2DE}"/>
+    <hyperlink ref="A792" r:id="rId11" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{ECD0B7C1-5B98-A846-AF3D-7D1FCBC6D609}"/>
+    <hyperlink ref="A787" r:id="rId12" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{237DB83B-7DFC-4940-8368-3EBEAB391B83}"/>
+    <hyperlink ref="A755" r:id="rId13" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{FC16DFAA-F6FE-8844-B298-7DAF4A55E8C1}"/>
+    <hyperlink ref="A750" r:id="rId14" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{F0631D7E-EED3-E545-8D11-9176CC441567}"/>
+    <hyperlink ref="A718" r:id="rId15" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{20203A10-4EA5-A444-81CF-A49353E1A41F}"/>
+    <hyperlink ref="A713" r:id="rId16" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{C1233F43-76AE-A74F-824A-CDB8162696B0}"/>
+    <hyperlink ref="A681" r:id="rId17" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{8FEEB2F0-2A3E-8E4F-924F-B562960B2E70}"/>
+    <hyperlink ref="A676" r:id="rId18" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{46EF6C35-FF9C-5F4C-A2BF-09658E763D40}"/>
+    <hyperlink ref="A640" r:id="rId19" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{01E59262-DB99-184E-ACDF-785BE8DA4FD7}"/>
+    <hyperlink ref="A635" r:id="rId20" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{E0E7FC9D-FAC1-8B42-A304-D6E67B9BF66C}"/>
+    <hyperlink ref="A602" r:id="rId21" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{4B1E51A7-164E-5F4F-9388-B1ADC10C564E}"/>
+    <hyperlink ref="A597" r:id="rId22" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{30C4905D-62CA-5440-B4E4-3BCCAB35317E}"/>
+    <hyperlink ref="A565" r:id="rId23" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{FBD5675F-22AA-F747-BE9A-42CFD5BE2979}"/>
+    <hyperlink ref="A560" r:id="rId24" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{B37904DA-E324-E149-B847-F3D406AB10E4}"/>
+    <hyperlink ref="A528" r:id="rId25" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{4C217684-D34C-8A43-B0A1-6858D70FA70E}"/>
+    <hyperlink ref="A523" r:id="rId26" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{F6401BC0-B802-924C-942D-5A7F8C2CDA1E}"/>
+    <hyperlink ref="A491" r:id="rId27" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{95998714-371A-0141-96D3-EB3F85A2B388}"/>
+    <hyperlink ref="A486" r:id="rId28" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{FE98FDB3-5BE8-FC4F-B770-C1966572C075}"/>
+    <hyperlink ref="A454" r:id="rId29" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{EA3C2E61-8C2F-BC4C-AFE1-B71D51E03C60}"/>
+    <hyperlink ref="A449" r:id="rId30" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{E4775CE1-D508-B948-8B20-7CE83C188332}"/>
+    <hyperlink ref="A417" r:id="rId31" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{20488598-FFF9-6E4E-86BB-45DC9E2830E8}"/>
+    <hyperlink ref="A412" r:id="rId32" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{5463C4A3-9990-224F-AA76-6A13FBAFE39A}"/>
+    <hyperlink ref="A380" r:id="rId33" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{4A6728AE-D81F-7845-A36D-5BC63010AC9B}"/>
+    <hyperlink ref="A375" r:id="rId34" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{ADFFEB5B-8877-C346-92F3-83171FE048D8}"/>
+    <hyperlink ref="A343" r:id="rId35" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{E72E4F80-76EC-ED4D-9D26-A69C88C1A6AC}"/>
+    <hyperlink ref="A338" r:id="rId36" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{8BD7A0BE-08C5-3A41-8017-F2C94E75C7AE}"/>
+    <hyperlink ref="A306" r:id="rId37" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{EB62B26F-26C2-564D-AACD-22F16335D644}"/>
+    <hyperlink ref="A301" r:id="rId38" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{1B8DA386-5C0C-6942-A448-3E19EF1D31D6}"/>
+    <hyperlink ref="A269" r:id="rId39" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{76AFBC1F-C8E3-1944-B7D5-0FFF5BA521F2}"/>
+    <hyperlink ref="A264" r:id="rId40" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{EBED3795-FF62-0E40-84BC-26AAE2325ADF}"/>
+    <hyperlink ref="A232" r:id="rId41" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{7FEB1ADB-78B6-D048-AA2D-D6D35B952901}"/>
+    <hyperlink ref="A227" r:id="rId42" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{1BEC2DD0-B3E0-2944-9F75-EC70AE2C11EB}"/>
+    <hyperlink ref="A195" r:id="rId43" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{9EA2943F-B647-6E48-9034-B69AF0CEE23A}"/>
+    <hyperlink ref="A190" r:id="rId44" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{BA5E6AB3-C11E-E54D-9CBD-9F29D6582E3F}"/>
+    <hyperlink ref="A158" r:id="rId45" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{64DB6F4A-5581-884E-BAF3-A3AAE2575560}"/>
+    <hyperlink ref="A153" r:id="rId46" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{300E5903-F065-5840-BC5F-1B3FF84D4946}"/>
+    <hyperlink ref="A121" r:id="rId47" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{E3B9E863-B0CB-8A4F-AAFF-BE31032DFBCF}"/>
+    <hyperlink ref="A116" r:id="rId48" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{C36B77F2-66E9-AB48-B9B0-21692F19AB9C}"/>
+    <hyperlink ref="A84" r:id="rId49" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{BD523F9F-2DF3-4645-B37C-0819186A10F1}"/>
+    <hyperlink ref="A79" r:id="rId50" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{2A207D90-E281-414A-B560-E478DB5F9FE5}"/>
+    <hyperlink ref="A47" r:id="rId51" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{1CBD8FDC-877F-B742-B135-C6D37533BE63}"/>
+    <hyperlink ref="A42" r:id="rId52" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{9A48F16B-F051-1B41-9844-FD50DD3257F2}"/>
+    <hyperlink ref="A10" r:id="rId53" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{3E66BB19-4163-2B49-83ED-9FF5BFA553FD}"/>
+    <hyperlink ref="A5" r:id="rId54" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{3F4F33A7-56C8-C942-8510-DE955757E4FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId55"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E75828-3DF0-6340-9528-11F47FDFEFED}">
+  <dimension ref="A1:AB1004"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Y15" zoomScale="114" workbookViewId="0">
+      <selection activeCell="AC43" sqref="AC43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0.92420000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="Z17">
+        <v>0.02</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0.89580000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="Z18">
+        <v>0.04</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>0.8851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z19">
+        <v>0.05</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0.8649</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z20">
+        <v>0.11</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0.81840000000000002</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0.84079999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="Z21">
+        <v>0.15</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>0.84809999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="Z22">
+        <v>0.17</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0.87260000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z23">
+        <v>0.19</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0.8488</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0.85560000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="Z24">
+        <v>0.2</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0.82369999999999999</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0.84730000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="Z25">
+        <v>0.21</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0.86709999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="Z26">
+        <v>0.23</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0.86309999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z27">
+        <v>0.25</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z28">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0.85740000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="Z29">
+        <v>0.33</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0.8024</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="Z30">
+        <v>0.38</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>0.84099999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z31">
+        <v>0.44</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0.8014</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>0.81520000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z32">
+        <v>0.5</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0.82909999999999995</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>0.82630000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="Z33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0.8014</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>0.79930000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="Z34">
+        <v>0.6</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0.78979999999999995</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>0.80159999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z35">
+        <v>0.65</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>0.73950000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z36">
+        <v>0.7</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>0.73019999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="Z37">
+        <v>0.75</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0.75670000000000004</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>0.75209999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="Z38">
+        <v>0.8</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>0.71630000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z39">
+        <v>0.85</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0.67810000000000004</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="Z40">
+        <v>0.9</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0.65539999999999998</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>0.66049999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="Z41">
+        <v>0.95</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0.65129999999999999</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>0.63649999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="Z42">
+        <v>0.97</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0.55710000000000004</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>0.55430000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="3" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="3" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="3" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" s="3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" s="3" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="3" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641" s="3" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649" s="3" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A682" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A684" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A709" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A711" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A718" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A720" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A722" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A723" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A724" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A726" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A727" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A728" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A729" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A730" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A731" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A732" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A733" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A734" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A735" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A736" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A737" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A738" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A739" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A740" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A741" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A742" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A743" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A744" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A746" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A747" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A748" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A749" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A751" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A752" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A753" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A754" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A755" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A756" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A757" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A758" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A759" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A760" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A761" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A762" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A763" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A764" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A765" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A766" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A767" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A768" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A769" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A770" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A771" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A772" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A773" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A774" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A775" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A776" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A777" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A778" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A779" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A780" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A781" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A782" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A783" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A784" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A785" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A786" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A787" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A788" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A789" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A790" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A791" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A792" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A793" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A794" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A795" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A796" s="3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A797" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A798" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A799" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A800" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A801" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A803" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A804" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A805" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A806" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A808" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A809" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A810" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A811" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A812" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A813" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A814" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A815" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A816" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A817" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A818" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A819" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A820" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A821" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A822" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A823" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A824" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A825" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A826" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A827" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A828" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A829" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A830" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A831" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A832" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A833" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A834" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A835" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A836" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A837" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A838" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A839" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A840" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A841" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A842" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A843" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A844" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A845" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A846" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A847" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A848" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A849" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A850" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A851" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A852" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A853" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A854" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A855" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A856" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A857" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A858" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A860" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A861" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A862" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A863" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A865" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A866" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A867" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A868" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A869" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A870" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A871" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A872" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A873" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A874" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A875" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A876" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A877" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A878" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A879" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A880" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A881" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A882" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A883" s="3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A884" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A885" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A886" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A887" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A888" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A889" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A890" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A891" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A892" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A893" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A894" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A895" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A896" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A897" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A898" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A899" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A900" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A901" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A902" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A903" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A904" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A905" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A906" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A907" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A908" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A909" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A910" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A911" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A912" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A913" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A914" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A915" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A917" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A918" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A919" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A920" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A922" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A923" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A924" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A925" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A926" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A927" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A928" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A929" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A930" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A931" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A932" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A933" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A934" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A935" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A936" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A937" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A938" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A939" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A940" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A941" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A942" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A943" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A944" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A945" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A946" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A947" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A948" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A949" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A950" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A951" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A952" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A953" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A954" s="3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A955" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A956" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A957" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A958" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A959" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A960" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A961" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A962" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A963" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A964" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A965" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A966" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A967" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A968" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A969" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A970" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A971" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A972" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A973" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A974" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A976" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A977" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A978" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A979" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A981" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A982" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A983" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A984" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A985" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A986" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A987" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A988" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A989" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A990" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A991" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A992" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A993" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A994" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A995" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A996" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A997" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A998" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A999" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1000" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1001" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1002" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1003" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1004" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{2E4FB7EA-A4BD-DD49-9E6A-F0FAA6B35F80}"/>
+    <hyperlink ref="A10" r:id="rId2" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{919773EA-5471-FA41-91DA-5704D317F29D}"/>
+    <hyperlink ref="A62" r:id="rId3" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{B96060D0-EB6B-2D4F-8F00-F4155837A84B}"/>
+    <hyperlink ref="A67" r:id="rId4" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{E66A5128-B67B-7849-8A27-3F9FD7DDDCEC}"/>
+    <hyperlink ref="A119" r:id="rId5" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{E63A5914-3FED-1046-8A06-9274A18CC902}"/>
+    <hyperlink ref="A124" r:id="rId6" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{CAF1F3DC-EE5C-6A4A-9895-1C44DC590B48}"/>
+    <hyperlink ref="A176" r:id="rId7" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{4AD59C5D-DCB4-2842-AACB-7B189E8074B6}"/>
+    <hyperlink ref="A181" r:id="rId8" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{856AE3F7-45DE-5441-9858-D94617AFA634}"/>
+    <hyperlink ref="A233" r:id="rId9" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{8AAEC317-0B0C-B543-A235-BD7EF2E78B99}"/>
+    <hyperlink ref="A238" r:id="rId10" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{FAF4A30C-4080-114E-AC14-3A7AE3A356DF}"/>
+    <hyperlink ref="A290" r:id="rId11" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{D8C03030-A1BF-6547-88DA-9527115D5A9F}"/>
+    <hyperlink ref="A295" r:id="rId12" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{7EA7E372-9D1B-D148-905B-1E4D3F69C69E}"/>
+    <hyperlink ref="A347" r:id="rId13" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{4AD96E0D-8A1E-2649-82AA-03320B337DDE}"/>
+    <hyperlink ref="A352" r:id="rId14" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{0DAFAC98-4129-9D48-BC8B-E3221488C8F7}"/>
+    <hyperlink ref="A404" r:id="rId15" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{7D85C709-3166-6340-8A4E-1E4C1352DB1E}"/>
+    <hyperlink ref="A409" r:id="rId16" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{E11BF4D7-DA49-D242-9393-379642172507}"/>
+    <hyperlink ref="A461" r:id="rId17" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{625610D8-4EAD-B340-B2DD-C382715CACC6}"/>
+    <hyperlink ref="A466" r:id="rId18" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{529ACC81-0D80-264C-9A8B-A11B5DBE23FA}"/>
+    <hyperlink ref="A518" r:id="rId19" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{F278921F-938F-414C-B200-2E4BB4CBFECA}"/>
+    <hyperlink ref="A523" r:id="rId20" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{8257633B-E70C-1B42-9587-210AA3EB863D}"/>
+    <hyperlink ref="A575" r:id="rId21" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{5DCFB1E5-FED0-0C4A-9694-D430E6B6ECA3}"/>
+    <hyperlink ref="A580" r:id="rId22" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{F4716F92-7111-9445-9D17-CC31CA2F3D8B}"/>
+    <hyperlink ref="A632" r:id="rId23" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{D2F5C537-2A07-4849-A071-28068832EB96}"/>
+    <hyperlink ref="A637" r:id="rId24" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{7BA3ACF1-25B4-D54A-A51C-C2253E26586E}"/>
+    <hyperlink ref="A689" r:id="rId25" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{2C973C84-9EDE-A144-9A3B-F87FFDA9A60A}"/>
+    <hyperlink ref="A694" r:id="rId26" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{D2D944EC-2CF1-DD41-A12F-97F865EC7529}"/>
+    <hyperlink ref="A746" r:id="rId27" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{7705FB90-58A5-6748-B7A7-EDB9418F46F8}"/>
+    <hyperlink ref="A751" r:id="rId28" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{47F1C10F-5D8D-9A44-9E6C-52082DBDF715}"/>
+    <hyperlink ref="A803" r:id="rId29" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{075071F9-DF10-AD4C-87DE-1B51ADF5B339}"/>
+    <hyperlink ref="A808" r:id="rId30" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{5645B9B6-DCC4-8745-91B3-44414A3639B8}"/>
+    <hyperlink ref="A860" r:id="rId31" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{8D7185B8-45BD-5A4F-AC36-3E6607AB1DA0}"/>
+    <hyperlink ref="A865" r:id="rId32" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{4B8FF172-07CD-964D-BC4D-47501F6C0B51}"/>
+    <hyperlink ref="A917" r:id="rId33" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{133AA6CC-845E-E244-A29F-3685AE96FB7D}"/>
+    <hyperlink ref="A922" r:id="rId34" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{F76B7664-15EA-E545-8F6B-72F82899193D}"/>
+    <hyperlink ref="A976" r:id="rId35" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{D5C78548-5CA7-A142-9ADC-314D3186B50B}"/>
+    <hyperlink ref="A981" r:id="rId36" location="returning-a-view-versus-a-copy" display="http://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html - returning-a-view-versus-a-copy" xr:uid="{4BA566C8-A88B-0047-A01F-9150A6E6B7FC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId37"/>
 </worksheet>
 </file>
--- a/Dropout analysis.xlsx
+++ b/Dropout analysis.xlsx
@@ -8,23 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dor/Desktop/network-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979CB80C-B21F-1843-9631-48EC504D2171}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BE1D04-598F-1F4B-B6D4-9391356E2C47}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="0" windowWidth="15420" windowHeight="18000" activeTab="4" xr2:uid="{86BD3BBC-0022-8B40-B071-65728349A685}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="18000" firstSheet="4" activeTab="5" xr2:uid="{86BD3BBC-0022-8B40-B071-65728349A685}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Early Stopping" sheetId="3" r:id="rId3"/>
-    <sheet name="Dropout" sheetId="4" r:id="rId4"/>
-    <sheet name="Dropout-Early Stopping" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
+    <sheet name="Dropout" sheetId="4" r:id="rId5"/>
+    <sheet name="Dropout Early Stopping Preproce" sheetId="7" r:id="rId6"/>
+    <sheet name="Dropout-Early Stopping" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$G$6:$G$1750</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$H$1:$H$5</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Dropout Early Stopping Preproce'!$M$28:$M$54</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$H$6:$H$1750</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$I$1:$I$5</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$I$6:$I$1750</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Dropout Early Stopping Preproce'!$K$27</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Dropout Early Stopping Preproce'!$K$28:$K$54</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Dropout Early Stopping Preproce'!$L$27</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Dropout Early Stopping Preproce'!$L$28:$L$54</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Dropout Early Stopping Preproce'!$M$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5083" uniqueCount="936">
   <si>
     <t>accuracy: 85.71%</t>
   </si>
@@ -2838,6 +2846,12 @@
   </si>
   <si>
     <t>Epoch 00169: early stopping</t>
+  </si>
+  <si>
+    <t>Train Acc.</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
   </si>
 </sst>
 </file>
@@ -2894,13 +2908,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7743,37 +7760,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -8240,6 +8227,7 @@
         <c:axId val="1908358143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -12578,13 +12566,13 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>465667</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>126777</xdr:rowOff>
+      <xdr:rowOff>126776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>91351</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>62609</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>300789</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>44560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24691,7 +24679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF4B365-3C18-B044-9F00-C63418821C75}">
   <dimension ref="A1:X1148"/>
   <sheetViews>
-    <sheetView topLeftCell="J6" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="V12" sqref="V12:X12"/>
     </sheetView>
   </sheetViews>
@@ -30483,11 +30471,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43576E02-D85C-6A4A-8571-E4F7322DEFD0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F36" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C7D3AC-3F9E-814D-8630-D788D76B74AA}">
   <dimension ref="A1:AB1004"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="X28" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="W1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15:Z42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35558,12 +35564,4859 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD463C8-F77E-6145-8889-288F74B4955F}">
+  <dimension ref="A1:M1558"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.89090000000000003</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8">
+        <v>0.02</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>0.04</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10">
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11">
+        <v>0.11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.89890000000000003</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12">
+        <v>0.15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.98470000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13">
+        <v>0.17</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.98250000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14">
+        <v>0.19</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.98129999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.89890000000000003</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.97970000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16">
+        <v>0.21</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.89090000000000003</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.97609999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17">
+        <v>0.23</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.97439999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.8962</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.96510000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.8962</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.96309999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20">
+        <v>0.33</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.94980000000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21">
+        <v>0.38</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.93900000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22">
+        <v>0.44</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.93299999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.87650000000000006</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.91709999999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.91480000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25">
+        <v>0.6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.873</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.8972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26">
+        <v>0.65</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.86580000000000001</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.89469999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27">
+        <v>0.7</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.86580000000000001</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.8851</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28">
+        <v>0.75</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.86049999999999993</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.87190000000000001</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29">
+        <v>0.8</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.8479000000000001</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30">
+        <v>0.85</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.83989999999999998</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31">
+        <v>0.9</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.82519999999999993</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32">
+        <v>0.95</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.78439999999999999</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33">
+        <v>0.97</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.7591</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="C38" t="s">
+        <v>935</v>
+      </c>
+      <c r="D38">
+        <v>0.11</v>
+      </c>
+      <c r="E38">
+        <v>0.08</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="4"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="3"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="3"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="3"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="3"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="3"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="3"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="3"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="3"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="3"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="3"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="3"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="3"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="3"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="3"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="3"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="3"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="3"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="3"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="3"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="3"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="3"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="3"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="3"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="3"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="3"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="3"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="3"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="3"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="3"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="3"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="3"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="3"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="3"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="3"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="3"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="3"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="3"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="3"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="3"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="3"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="3"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="3"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="3"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="4"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="3"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="3"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="3"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="3"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="3"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="3"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="3"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="3"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="3"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="3"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="3"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="3"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="3"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="3"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="3"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="3"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="3"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="3"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="3"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="3"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="3"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="3"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="3"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="3"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="3"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="3"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="3"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="3"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="3"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="3"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="3"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="3"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="3"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="3"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="3"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="3"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="3"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="3"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="3"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="3"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="3"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="3"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="3"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="3"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="3"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="3"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="3"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="3"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="3"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="3"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="4"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="3"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="3"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="3"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="4"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="3"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="3"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="3"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="3"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="3"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="3"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="3"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="3"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="3"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="3"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="3"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="3"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="3"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="3"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="3"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="3"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="3"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="3"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="3"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="3"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="3"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="3"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="3"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="3"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="3"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="3"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="3"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="3"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="3"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="3"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="3"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="3"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="3"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="3"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="3"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="3"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="3"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="3"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="3"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="3"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" s="3"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="3"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="3"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="3"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="3"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="3"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="3"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" s="3"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" s="3"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" s="3"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" s="4"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" s="3"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" s="3"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" s="3"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" s="4"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" s="3"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" s="3"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" s="3"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" s="3"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" s="3"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" s="3"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" s="3"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" s="3"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" s="3"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" s="3"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" s="3"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" s="3"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" s="3"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" s="3"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" s="3"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" s="3"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" s="3"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" s="3"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" s="3"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" s="3"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" s="3"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" s="3"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" s="3"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" s="3"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" s="3"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" s="3"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" s="3"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" s="3"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" s="3"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" s="3"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" s="3"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" s="3"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" s="3"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" s="3"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" s="3"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" s="3"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" s="3"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" s="3"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" s="3"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" s="3"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" s="3"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" s="3"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" s="3"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" s="3"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" s="3"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" s="3"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" s="3"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" s="3"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" s="3"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" s="3"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" s="4"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" s="3"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" s="3"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" s="3"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" s="4"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" s="3"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" s="3"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" s="3"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" s="3"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" s="3"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" s="3"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" s="3"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" s="3"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" s="3"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" s="3"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" s="3"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" s="3"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" s="3"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" s="3"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" s="3"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" s="3"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" s="3"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" s="3"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" s="3"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" s="3"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" s="3"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" s="3"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" s="3"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="3"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="3"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="3"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="3"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="3"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="3"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="3"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="3"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="3"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="3"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="3"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="3"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="3"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="3"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="3"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="3"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="3"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" s="3"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" s="3"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" s="3"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" s="3"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" s="3"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" s="3"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" s="3"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" s="3"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" s="3"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" s="3"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" s="4"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" s="3"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" s="3"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" s="3"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="4"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="3"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="3"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="3"/>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="3"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="3"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="3"/>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="3"/>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="3"/>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="3"/>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="3"/>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="3"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="3"/>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="3"/>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" s="3"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" s="3"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" s="3"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" s="3"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" s="3"/>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" s="3"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" s="3"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" s="3"/>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" s="3"/>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" s="3"/>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" s="3"/>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" s="3"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" s="3"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" s="3"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" s="3"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" s="3"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" s="3"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="3"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="3"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="3"/>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="3"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="3"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="3"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="3"/>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="3"/>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="3"/>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="3"/>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="3"/>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="3"/>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="3"/>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="3"/>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" s="3"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" s="3"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" s="3"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" s="3"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" s="3"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" s="3"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518" s="4"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" s="3"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" s="3"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" s="3"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" s="4"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" s="3"/>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525" s="3"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526" s="3"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527" s="3"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528" s="3"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="3"/>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="3"/>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="3"/>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="3"/>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="3"/>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="3"/>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="3"/>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="3"/>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="3"/>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="3"/>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="3"/>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="3"/>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="3"/>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542" s="3"/>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543" s="3"/>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544" s="3"/>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="3"/>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="3"/>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="3"/>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="3"/>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="3"/>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="3"/>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="3"/>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="3"/>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="3"/>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="3"/>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="3"/>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="3"/>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="3"/>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="3"/>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="3"/>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="3"/>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="3"/>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="3"/>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="3"/>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="3"/>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="3"/>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="3"/>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="3"/>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="3"/>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="3"/>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="3"/>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="3"/>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572" s="3"/>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573" s="3"/>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575" s="4"/>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576" s="3"/>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577" s="3"/>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578" s="3"/>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580" s="4"/>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581" s="3"/>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582" s="3"/>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583" s="3"/>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584" s="3"/>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585" s="3"/>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586" s="3"/>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587" s="3"/>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588" s="3"/>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589" s="3"/>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590" s="3"/>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591" s="3"/>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592" s="3"/>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" s="3"/>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" s="3"/>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" s="3"/>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" s="3"/>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597" s="3"/>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598" s="3"/>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599" s="3"/>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600" s="3"/>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601" s="3"/>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602" s="3"/>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603" s="3"/>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604" s="3"/>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605" s="3"/>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606" s="3"/>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607" s="3"/>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608" s="3"/>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609" s="3"/>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610" s="3"/>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611" s="3"/>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612" s="3"/>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613" s="3"/>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614" s="3"/>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615" s="3"/>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616" s="3"/>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617" s="3"/>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618" s="3"/>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619" s="3"/>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620" s="3"/>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621" s="3"/>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622" s="3"/>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623" s="3"/>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624" s="3"/>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625" s="3"/>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626" s="3"/>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627" s="3"/>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628" s="3"/>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629" s="3"/>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630" s="3"/>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632" s="4"/>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633" s="3"/>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634" s="3"/>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635" s="3"/>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637" s="4"/>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638" s="3"/>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639" s="3"/>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640" s="3"/>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641" s="3"/>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642" s="3"/>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643" s="3"/>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644" s="3"/>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645" s="3"/>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646" s="3"/>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647" s="3"/>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648" s="3"/>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649" s="3"/>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650" s="3"/>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651" s="3"/>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652" s="3"/>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653" s="3"/>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654" s="3"/>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655" s="3"/>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656" s="3"/>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657" s="3"/>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658" s="3"/>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659" s="3"/>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660" s="3"/>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661" s="3"/>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662" s="3"/>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663" s="3"/>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664" s="3"/>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665" s="3"/>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666" s="3"/>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667" s="3"/>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668" s="3"/>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669" s="3"/>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670" s="3"/>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671" s="3"/>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672" s="3"/>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673" s="3"/>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674" s="3"/>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675" s="3"/>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676" s="3"/>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677" s="3"/>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678" s="3"/>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679" s="3"/>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680" s="3"/>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681" s="3"/>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A682" s="3"/>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683" s="3"/>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A684" s="3"/>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685" s="3"/>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686" s="3"/>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687" s="3"/>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689" s="4"/>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690" s="3"/>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691" s="3"/>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692" s="3"/>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694" s="4"/>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695" s="3"/>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696" s="3"/>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697" s="3"/>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698" s="3"/>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699" s="3"/>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700" s="3"/>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701" s="3"/>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702" s="3"/>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703" s="3"/>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704" s="3"/>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705" s="3"/>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706" s="3"/>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707" s="3"/>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708" s="3"/>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A709" s="3"/>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710" s="3"/>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A711" s="3"/>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712" s="3"/>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713" s="3"/>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714" s="3"/>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715" s="3"/>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716" s="3"/>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717" s="3"/>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A718" s="3"/>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719" s="3"/>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A720" s="3"/>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721" s="3"/>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A722" s="3"/>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A723" s="3"/>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A724" s="3"/>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725" s="3"/>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A726" s="3"/>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A727" s="3"/>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A728" s="3"/>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A729" s="3"/>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A730" s="3"/>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A731" s="3"/>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A732" s="3"/>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A733" s="3"/>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A734" s="3"/>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A735" s="3"/>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A736" s="3"/>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A737" s="3"/>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A738" s="3"/>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A739" s="3"/>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A740" s="3"/>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A741" s="3"/>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A742" s="3"/>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A743" s="3"/>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A744" s="3"/>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A746" s="4"/>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A747" s="3"/>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A748" s="3"/>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A749" s="3"/>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A751" s="4"/>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A752" s="3"/>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A753" s="3"/>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A754" s="3"/>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A755" s="3"/>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A756" s="3"/>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A757" s="3"/>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A758" s="3"/>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A759" s="3"/>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A760" s="3"/>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A761" s="3"/>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A762" s="3"/>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A763" s="3"/>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A764" s="3"/>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A765" s="3"/>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A766" s="3"/>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A767" s="3"/>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A768" s="3"/>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A769" s="3"/>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A770" s="3"/>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A771" s="3"/>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A772" s="3"/>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A773" s="3"/>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A774" s="3"/>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A775" s="3"/>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A776" s="3"/>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A777" s="3"/>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A778" s="3"/>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A779" s="3"/>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A780" s="3"/>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A781" s="3"/>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A782" s="3"/>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A783" s="3"/>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A784" s="3"/>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A785" s="3"/>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A786" s="3"/>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A787" s="3"/>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A788" s="3"/>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A789" s="3"/>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A790" s="3"/>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A791" s="3"/>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A792" s="3"/>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A793" s="3"/>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A794" s="3"/>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A795" s="3"/>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A796" s="3"/>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A797" s="3"/>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A798" s="3"/>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A799" s="3"/>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A800" s="3"/>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A801" s="3"/>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A803" s="4"/>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A804" s="3"/>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A805" s="3"/>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A806" s="3"/>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A808" s="4"/>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A809" s="3"/>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A810" s="3"/>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A811" s="3"/>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A812" s="3"/>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A813" s="3"/>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A814" s="3"/>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A815" s="3"/>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A816" s="3"/>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A817" s="3"/>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A818" s="3"/>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A819" s="3"/>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A820" s="3"/>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A821" s="3"/>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A822" s="3"/>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A823" s="3"/>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A824" s="3"/>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A825" s="3"/>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A826" s="3"/>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A827" s="3"/>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A828" s="3"/>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A829" s="3"/>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A830" s="3"/>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A831" s="3"/>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A832" s="3"/>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A833" s="3"/>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A834" s="3"/>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A835" s="3"/>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A836" s="3"/>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A837" s="3"/>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A838" s="3"/>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A839" s="3"/>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A840" s="3"/>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A841" s="3"/>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A842" s="3"/>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A843" s="3"/>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A844" s="3"/>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A845" s="3"/>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A846" s="3"/>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A847" s="3"/>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A848" s="3"/>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A849" s="3"/>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A850" s="3"/>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A851" s="3"/>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A852" s="3"/>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A853" s="3"/>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A854" s="3"/>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A855" s="3"/>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A856" s="3"/>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A857" s="3"/>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A858" s="3"/>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A860" s="4"/>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A861" s="3"/>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A862" s="3"/>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A863" s="3"/>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A865" s="4"/>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A866" s="3"/>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A867" s="3"/>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A868" s="3"/>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A869" s="3"/>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A870" s="3"/>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A871" s="3"/>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A872" s="3"/>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A873" s="3"/>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A874" s="3"/>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A875" s="3"/>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A876" s="3"/>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A877" s="3"/>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A878" s="3"/>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A879" s="3"/>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A880" s="3"/>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A881" s="3"/>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A882" s="3"/>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A883" s="3"/>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A884" s="3"/>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A885" s="3"/>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A886" s="3"/>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A887" s="3"/>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A888" s="3"/>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A889" s="3"/>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A890" s="3"/>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A891" s="3"/>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A892" s="3"/>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A893" s="3"/>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A894" s="3"/>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A895" s="3"/>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A896" s="3"/>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A897" s="3"/>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A898" s="3"/>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A899" s="3"/>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A900" s="3"/>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A901" s="3"/>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A902" s="3"/>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A903" s="3"/>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A904" s="3"/>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A905" s="3"/>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A906" s="3"/>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A907" s="3"/>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A908" s="3"/>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A909" s="3"/>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A910" s="3"/>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A911" s="3"/>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A912" s="3"/>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A913" s="3"/>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A914" s="3"/>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A915" s="3"/>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A917" s="4"/>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A918" s="3"/>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A919" s="3"/>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A920" s="3"/>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A922" s="4"/>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A923" s="3"/>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A924" s="3"/>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A925" s="3"/>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A926" s="3"/>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A927" s="3"/>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A928" s="3"/>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A929" s="3"/>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A930" s="3"/>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A931" s="3"/>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A932" s="3"/>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A933" s="3"/>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A934" s="3"/>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A935" s="3"/>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A936" s="3"/>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A937" s="3"/>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A938" s="3"/>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A939" s="3"/>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A940" s="3"/>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A941" s="3"/>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A942" s="3"/>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A943" s="3"/>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A944" s="3"/>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A945" s="3"/>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A946" s="3"/>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A947" s="3"/>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A948" s="3"/>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A949" s="3"/>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A950" s="3"/>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A951" s="3"/>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A952" s="3"/>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A953" s="3"/>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A954" s="3"/>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A955" s="3"/>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A956" s="3"/>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A957" s="3"/>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A958" s="3"/>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A959" s="3"/>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A960" s="3"/>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A961" s="3"/>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A962" s="3"/>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A963" s="3"/>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A964" s="3"/>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A965" s="3"/>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A966" s="3"/>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A967" s="3"/>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A968" s="3"/>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A969" s="3"/>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A970" s="3"/>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A971" s="3"/>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A972" s="3"/>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A974" s="4"/>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A975" s="3"/>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A976" s="3"/>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A977" s="3"/>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A979" s="4"/>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A980" s="3"/>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A981" s="3"/>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A982" s="3"/>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A983" s="3"/>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A984" s="3"/>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A985" s="3"/>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A986" s="3"/>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A987" s="3"/>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A988" s="3"/>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A989" s="3"/>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A990" s="3"/>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A991" s="3"/>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A992" s="3"/>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A993" s="3"/>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A994" s="3"/>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A995" s="3"/>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A996" s="3"/>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A997" s="3"/>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A998" s="3"/>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A999" s="3"/>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1000" s="3"/>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1001" s="3"/>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1002" s="3"/>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1003" s="3"/>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1004" s="3"/>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1005" s="3"/>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1006" s="3"/>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1007" s="3"/>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1008" s="3"/>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1009" s="3"/>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1010" s="3"/>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1011" s="3"/>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1012" s="3"/>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1013" s="3"/>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1014" s="3"/>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1015" s="3"/>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1016" s="3"/>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1017" s="3"/>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1018" s="3"/>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1019" s="3"/>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1020" s="3"/>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1021" s="3"/>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1022" s="3"/>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1023" s="3"/>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1024" s="3"/>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1025" s="3"/>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1026" s="3"/>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1027" s="3"/>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1028" s="3"/>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1029" s="3"/>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1031" s="4"/>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1032" s="3"/>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1033" s="3"/>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1034" s="3"/>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1036" s="4"/>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1037" s="3"/>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1038" s="3"/>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1039" s="3"/>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1040" s="3"/>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1041" s="3"/>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1042" s="3"/>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1043" s="3"/>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1044" s="3"/>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1045" s="3"/>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1046" s="3"/>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1047" s="3"/>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1048" s="3"/>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1049" s="3"/>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1050" s="3"/>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1051" s="3"/>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1052" s="3"/>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1053" s="3"/>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1054" s="3"/>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1055" s="3"/>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1056" s="3"/>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1057" s="3"/>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1058" s="3"/>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1059" s="3"/>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1060" s="3"/>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1061" s="3"/>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1062" s="3"/>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1063" s="3"/>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1064" s="3"/>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1065" s="3"/>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1066" s="3"/>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1067" s="3"/>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1068" s="3"/>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1069" s="3"/>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1070" s="3"/>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1071" s="3"/>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1072" s="3"/>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1073" s="3"/>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1074" s="3"/>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1075" s="3"/>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1076" s="3"/>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1077" s="3"/>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1078" s="3"/>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1079" s="3"/>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1080" s="3"/>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1081" s="3"/>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1082" s="3"/>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1083" s="3"/>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1084" s="3"/>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1085" s="3"/>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1086" s="3"/>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1088" s="4"/>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1089" s="3"/>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1090" s="3"/>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1091" s="3"/>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1093" s="4"/>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1094" s="3"/>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1095" s="3"/>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1096" s="3"/>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1097" s="3"/>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1098" s="3"/>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1099" s="3"/>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1100" s="3"/>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1101" s="3"/>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1102" s="3"/>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1103" s="3"/>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1104" s="3"/>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1105" s="3"/>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1106" s="3"/>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1107" s="3"/>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1108" s="3"/>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1109" s="3"/>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1110" s="3"/>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1111" s="3"/>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1112" s="3"/>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1113" s="3"/>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1114" s="3"/>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1115" s="3"/>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1116" s="3"/>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1117" s="3"/>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1118" s="3"/>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1119" s="3"/>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1120" s="3"/>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1121" s="3"/>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1122" s="3"/>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1123" s="3"/>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1124" s="3"/>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1125" s="3"/>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1126" s="3"/>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1127" s="3"/>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1128" s="3"/>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1129" s="3"/>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1130" s="3"/>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1131" s="3"/>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1132" s="3"/>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1133" s="3"/>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1134" s="3"/>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1135" s="3"/>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1136" s="3"/>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1137" s="3"/>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1138" s="3"/>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1139" s="3"/>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1140" s="3"/>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1141" s="3"/>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1142" s="3"/>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1143" s="3"/>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1145" s="4"/>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1146" s="3"/>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1147" s="3"/>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1148" s="3"/>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1150" s="4"/>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1151" s="3"/>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1152" s="3"/>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1153" s="3"/>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1154" s="3"/>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1155" s="3"/>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1156" s="3"/>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1157" s="3"/>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1158" s="3"/>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1159" s="3"/>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1160" s="3"/>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1161" s="3"/>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1162" s="3"/>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1163" s="3"/>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1164" s="3"/>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1165" s="3"/>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1166" s="3"/>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1167" s="3"/>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1168" s="3"/>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1169" s="3"/>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1170" s="3"/>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1171" s="3"/>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1172" s="3"/>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1173" s="3"/>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1174" s="3"/>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1175" s="3"/>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1176" s="3"/>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1177" s="3"/>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1178" s="3"/>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1179" s="3"/>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1180" s="3"/>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1181" s="3"/>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1182" s="3"/>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1183" s="3"/>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1184" s="3"/>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1185" s="3"/>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1186" s="3"/>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1187" s="3"/>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1188" s="3"/>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1189" s="3"/>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1190" s="3"/>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1191" s="3"/>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1192" s="3"/>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1193" s="3"/>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1194" s="3"/>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1195" s="3"/>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1196" s="3"/>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1197" s="3"/>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1198" s="3"/>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1199" s="3"/>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1200" s="3"/>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1202" s="4"/>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1203" s="3"/>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1204" s="3"/>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1205" s="3"/>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1207" s="4"/>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1208" s="3"/>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1209" s="3"/>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1210" s="3"/>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1211" s="3"/>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1212" s="3"/>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1213" s="3"/>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1214" s="3"/>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1215" s="3"/>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1216" s="3"/>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1217" s="3"/>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1218" s="3"/>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1219" s="3"/>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1220" s="3"/>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1221" s="3"/>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1222" s="3"/>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1223" s="3"/>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1224" s="3"/>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1225" s="3"/>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1226" s="3"/>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1227" s="3"/>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1228" s="3"/>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1229" s="3"/>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1230" s="3"/>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1231" s="3"/>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1232" s="3"/>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1233" s="3"/>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1234" s="3"/>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1235" s="3"/>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1236" s="3"/>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1237" s="3"/>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1238" s="3"/>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1239" s="3"/>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1240" s="3"/>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1241" s="3"/>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1242" s="3"/>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1243" s="3"/>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1244" s="3"/>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1245" s="3"/>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1246" s="3"/>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1247" s="3"/>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1248" s="3"/>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1249" s="3"/>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1250" s="3"/>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1251" s="3"/>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1252" s="3"/>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1253" s="3"/>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1254" s="3"/>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1255" s="3"/>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1256" s="3"/>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1257" s="3"/>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1259" s="4"/>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1260" s="3"/>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1261" s="3"/>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1262" s="3"/>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1264" s="4"/>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1265" s="3"/>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1266" s="3"/>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1267" s="3"/>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1268" s="3"/>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1269" s="3"/>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1270" s="3"/>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1271" s="3"/>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1272" s="3"/>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1273" s="3"/>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1274" s="3"/>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1275" s="3"/>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1276" s="3"/>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1277" s="3"/>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1278" s="3"/>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1279" s="3"/>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1280" s="3"/>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1281" s="3"/>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1282" s="3"/>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1283" s="3"/>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1284" s="3"/>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1285" s="3"/>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1286" s="3"/>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1287" s="3"/>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1288" s="3"/>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1289" s="3"/>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1290" s="3"/>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1291" s="3"/>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1292" s="3"/>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1293" s="3"/>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1294" s="3"/>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1295" s="3"/>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1296" s="3"/>
+    </row>
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1297" s="3"/>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1298" s="3"/>
+    </row>
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1299" s="3"/>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1300" s="3"/>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1301" s="3"/>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1302" s="3"/>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1303" s="3"/>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1304" s="3"/>
+    </row>
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1305" s="3"/>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1306" s="3"/>
+    </row>
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1307" s="3"/>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1308" s="3"/>
+    </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1309" s="3"/>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1310" s="3"/>
+    </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1311" s="3"/>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1312" s="3"/>
+    </row>
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1313" s="3"/>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1314" s="3"/>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1316" s="4"/>
+    </row>
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1317" s="3"/>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1318" s="3"/>
+    </row>
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1319" s="3"/>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1321" s="4"/>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1322" s="3"/>
+    </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1323" s="3"/>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1324" s="3"/>
+    </row>
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1325" s="3"/>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1326" s="3"/>
+    </row>
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1327" s="3"/>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1328" s="3"/>
+    </row>
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1329" s="3"/>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1330" s="3"/>
+    </row>
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1331" s="3"/>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1332" s="3"/>
+    </row>
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1333" s="3"/>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1334" s="3"/>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1335" s="3"/>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1336" s="3"/>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1337" s="3"/>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1338" s="3"/>
+    </row>
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1339" s="3"/>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1340" s="3"/>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1341" s="3"/>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1342" s="3"/>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1343" s="3"/>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1344" s="3"/>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1345" s="3"/>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1346" s="3"/>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1347" s="3"/>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1348" s="3"/>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1349" s="3"/>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1350" s="3"/>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1351" s="3"/>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1352" s="3"/>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1353" s="3"/>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1354" s="3"/>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1355" s="3"/>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1356" s="3"/>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1357" s="3"/>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1358" s="3"/>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1359" s="3"/>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1360" s="3"/>
+    </row>
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1361" s="3"/>
+    </row>
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1362" s="3"/>
+    </row>
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1363" s="3"/>
+    </row>
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1364" s="3"/>
+    </row>
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1365" s="3"/>
+    </row>
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1366" s="3"/>
+    </row>
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1367" s="3"/>
+    </row>
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1368" s="3"/>
+    </row>
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1369" s="3"/>
+    </row>
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1370" s="3"/>
+    </row>
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1371" s="3"/>
+    </row>
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1373" s="4"/>
+    </row>
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1374" s="3"/>
+    </row>
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1375" s="3"/>
+    </row>
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1376" s="3"/>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1378" s="4"/>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1379" s="3"/>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1380" s="3"/>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1381" s="3"/>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1382" s="3"/>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1383" s="3"/>
+    </row>
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1384" s="3"/>
+    </row>
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1385" s="3"/>
+    </row>
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1386" s="3"/>
+    </row>
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1387" s="3"/>
+    </row>
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1388" s="3"/>
+    </row>
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1389" s="3"/>
+    </row>
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1390" s="3"/>
+    </row>
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1391" s="3"/>
+    </row>
+    <row r="1392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1392" s="3"/>
+    </row>
+    <row r="1393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1393" s="3"/>
+    </row>
+    <row r="1394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1394" s="3"/>
+    </row>
+    <row r="1395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1395" s="3"/>
+    </row>
+    <row r="1396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1396" s="3"/>
+    </row>
+    <row r="1397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1397" s="3"/>
+    </row>
+    <row r="1398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1398" s="3"/>
+    </row>
+    <row r="1399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1399" s="3"/>
+    </row>
+    <row r="1400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1400" s="3"/>
+    </row>
+    <row r="1401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1401" s="3"/>
+    </row>
+    <row r="1402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1402" s="3"/>
+    </row>
+    <row r="1403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1403" s="3"/>
+    </row>
+    <row r="1404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1404" s="3"/>
+    </row>
+    <row r="1405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1405" s="3"/>
+    </row>
+    <row r="1406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1406" s="3"/>
+    </row>
+    <row r="1407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1407" s="3"/>
+    </row>
+    <row r="1408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1408" s="3"/>
+    </row>
+    <row r="1409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1409" s="3"/>
+    </row>
+    <row r="1410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1410" s="3"/>
+    </row>
+    <row r="1411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1411" s="3"/>
+    </row>
+    <row r="1412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1412" s="3"/>
+    </row>
+    <row r="1413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1413" s="3"/>
+    </row>
+    <row r="1414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1414" s="3"/>
+    </row>
+    <row r="1415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1415" s="3"/>
+    </row>
+    <row r="1416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1416" s="3"/>
+    </row>
+    <row r="1417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1417" s="3"/>
+    </row>
+    <row r="1418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1418" s="3"/>
+    </row>
+    <row r="1419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1419" s="3"/>
+    </row>
+    <row r="1420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1420" s="3"/>
+    </row>
+    <row r="1421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1421" s="3"/>
+    </row>
+    <row r="1422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1422" s="3"/>
+    </row>
+    <row r="1423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1423" s="3"/>
+    </row>
+    <row r="1424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1424" s="3"/>
+    </row>
+    <row r="1425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1425" s="3"/>
+    </row>
+    <row r="1426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1426" s="3"/>
+    </row>
+    <row r="1427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1427" s="3"/>
+    </row>
+    <row r="1428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1428" s="3"/>
+    </row>
+    <row r="1430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1430" s="4"/>
+    </row>
+    <row r="1431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1431" s="3"/>
+    </row>
+    <row r="1432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1432" s="3"/>
+    </row>
+    <row r="1433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1433" s="3"/>
+    </row>
+    <row r="1435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1435" s="4"/>
+    </row>
+    <row r="1436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1436" s="3"/>
+    </row>
+    <row r="1437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1437" s="3"/>
+    </row>
+    <row r="1438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1438" s="3"/>
+    </row>
+    <row r="1439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1439" s="3"/>
+    </row>
+    <row r="1440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1440" s="3"/>
+    </row>
+    <row r="1441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1441" s="3"/>
+    </row>
+    <row r="1442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1442" s="3"/>
+    </row>
+    <row r="1443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1443" s="3"/>
+    </row>
+    <row r="1444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1444" s="3"/>
+    </row>
+    <row r="1445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1445" s="3"/>
+    </row>
+    <row r="1446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1446" s="3"/>
+    </row>
+    <row r="1447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1447" s="3"/>
+    </row>
+    <row r="1448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1448" s="3"/>
+    </row>
+    <row r="1449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1449" s="3"/>
+    </row>
+    <row r="1450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1450" s="3"/>
+    </row>
+    <row r="1451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1451" s="3"/>
+    </row>
+    <row r="1452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1452" s="3"/>
+    </row>
+    <row r="1453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1453" s="3"/>
+    </row>
+    <row r="1454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1454" s="3"/>
+    </row>
+    <row r="1455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1455" s="3"/>
+    </row>
+    <row r="1456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1456" s="3"/>
+    </row>
+    <row r="1457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1457" s="3"/>
+    </row>
+    <row r="1458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1458" s="3"/>
+    </row>
+    <row r="1459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1459" s="3"/>
+    </row>
+    <row r="1460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1460" s="3"/>
+    </row>
+    <row r="1461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1461" s="3"/>
+    </row>
+    <row r="1462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1462" s="3"/>
+    </row>
+    <row r="1463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1463" s="3"/>
+    </row>
+    <row r="1464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1464" s="3"/>
+    </row>
+    <row r="1465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1465" s="3"/>
+    </row>
+    <row r="1466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1466" s="3"/>
+    </row>
+    <row r="1467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1467" s="3"/>
+    </row>
+    <row r="1468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1468" s="3"/>
+    </row>
+    <row r="1469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1469" s="3"/>
+    </row>
+    <row r="1470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1470" s="3"/>
+    </row>
+    <row r="1471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1471" s="3"/>
+    </row>
+    <row r="1472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1472" s="3"/>
+    </row>
+    <row r="1473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1473" s="3"/>
+    </row>
+    <row r="1474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1474" s="3"/>
+    </row>
+    <row r="1475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1475" s="3"/>
+    </row>
+    <row r="1476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1476" s="3"/>
+    </row>
+    <row r="1477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1477" s="3"/>
+    </row>
+    <row r="1478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1478" s="3"/>
+    </row>
+    <row r="1479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1479" s="3"/>
+    </row>
+    <row r="1480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1480" s="3"/>
+    </row>
+    <row r="1481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1481" s="3"/>
+    </row>
+    <row r="1482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1482" s="3"/>
+    </row>
+    <row r="1483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1483" s="3"/>
+    </row>
+    <row r="1484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1484" s="3"/>
+    </row>
+    <row r="1485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1485" s="3"/>
+    </row>
+    <row r="1487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1487" s="4"/>
+    </row>
+    <row r="1488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1488" s="3"/>
+    </row>
+    <row r="1489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1489" s="3"/>
+    </row>
+    <row r="1490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1490" s="3"/>
+    </row>
+    <row r="1492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1492" s="4"/>
+    </row>
+    <row r="1493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1493" s="3"/>
+    </row>
+    <row r="1494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1494" s="3"/>
+    </row>
+    <row r="1495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1495" s="3"/>
+    </row>
+    <row r="1496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1496" s="3"/>
+    </row>
+    <row r="1497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1497" s="3"/>
+    </row>
+    <row r="1498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1498" s="3"/>
+    </row>
+    <row r="1499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1499" s="3"/>
+    </row>
+    <row r="1500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1500" s="3"/>
+    </row>
+    <row r="1501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1501" s="3"/>
+    </row>
+    <row r="1502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1502" s="3"/>
+    </row>
+    <row r="1503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1503" s="3"/>
+    </row>
+    <row r="1504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1504" s="3"/>
+    </row>
+    <row r="1505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1505" s="3"/>
+    </row>
+    <row r="1506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1506" s="3"/>
+    </row>
+    <row r="1507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1507" s="3"/>
+    </row>
+    <row r="1508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1508" s="3"/>
+    </row>
+    <row r="1509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1509" s="3"/>
+    </row>
+    <row r="1510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1510" s="3"/>
+    </row>
+    <row r="1511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1511" s="3"/>
+    </row>
+    <row r="1512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1512" s="3"/>
+    </row>
+    <row r="1513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1513" s="3"/>
+    </row>
+    <row r="1514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1514" s="3"/>
+    </row>
+    <row r="1515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1515" s="3"/>
+    </row>
+    <row r="1516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1516" s="3"/>
+    </row>
+    <row r="1517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1517" s="3"/>
+    </row>
+    <row r="1518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1518" s="3"/>
+    </row>
+    <row r="1519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1519" s="3"/>
+    </row>
+    <row r="1520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1520" s="3"/>
+    </row>
+    <row r="1521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1521" s="3"/>
+    </row>
+    <row r="1522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1522" s="3"/>
+    </row>
+    <row r="1523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1523" s="3"/>
+    </row>
+    <row r="1524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1524" s="3"/>
+    </row>
+    <row r="1525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1525" s="3"/>
+    </row>
+    <row r="1526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1526" s="3"/>
+    </row>
+    <row r="1527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1527" s="3"/>
+    </row>
+    <row r="1528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1528" s="3"/>
+    </row>
+    <row r="1529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1529" s="3"/>
+    </row>
+    <row r="1530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1530" s="3"/>
+    </row>
+    <row r="1531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1531" s="3"/>
+    </row>
+    <row r="1532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1532" s="3"/>
+    </row>
+    <row r="1533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1533" s="3"/>
+    </row>
+    <row r="1534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1534" s="3"/>
+    </row>
+    <row r="1535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1535" s="3"/>
+    </row>
+    <row r="1536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1536" s="3"/>
+    </row>
+    <row r="1537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1537" s="3"/>
+    </row>
+    <row r="1538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1538" s="3"/>
+    </row>
+    <row r="1539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1539" s="3"/>
+    </row>
+    <row r="1540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1540" s="3"/>
+    </row>
+    <row r="1541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1541" s="3"/>
+    </row>
+    <row r="1542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1542" s="3"/>
+    </row>
+    <row r="1543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1543" s="3"/>
+    </row>
+    <row r="1544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1544" s="3"/>
+    </row>
+    <row r="1545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1545" s="3"/>
+    </row>
+    <row r="1546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1546" s="3"/>
+    </row>
+    <row r="1547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1547" s="3"/>
+    </row>
+    <row r="1548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1548" s="3"/>
+    </row>
+    <row r="1549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1549" s="3"/>
+    </row>
+    <row r="1550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1550" s="3"/>
+    </row>
+    <row r="1551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1551" s="3"/>
+    </row>
+    <row r="1552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1552" s="3"/>
+    </row>
+    <row r="1553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1553" s="3"/>
+    </row>
+    <row r="1554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1554" s="3"/>
+    </row>
+    <row r="1555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1555" s="3"/>
+    </row>
+    <row r="1556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1556" s="3"/>
+    </row>
+    <row r="1557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1557" s="3"/>
+    </row>
+    <row r="1558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1558" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E75828-3DF0-6340-9528-11F47FDFEFED}">
   <dimension ref="A1:AB1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y15" zoomScale="114" workbookViewId="0">
-      <selection activeCell="AC43" sqref="AC43"/>
+    <sheetView topLeftCell="R16" zoomScale="114" workbookViewId="0">
+      <selection activeCell="AG43" sqref="AG43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Dropout analysis.xlsx
+++ b/Dropout analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dor/Desktop/network-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BE1D04-598F-1F4B-B6D4-9391356E2C47}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561E695D-D9B8-3F40-A942-036A5C269EE2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="18000" firstSheet="4" activeTab="5" xr2:uid="{86BD3BBC-0022-8B40-B071-65728349A685}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="7" xr2:uid="{86BD3BBC-0022-8B40-B071-65728349A685}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Dropout" sheetId="4" r:id="rId5"/>
     <sheet name="Dropout Early Stopping Preproce" sheetId="7" r:id="rId6"/>
     <sheet name="Dropout-Early Stopping" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$G$6:$G$1750</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5083" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5252" uniqueCount="1105">
   <si>
     <t>accuracy: 85.71%</t>
   </si>
@@ -2852,6 +2853,513 @@
   </si>
   <si>
     <t>Dynamic</t>
+  </si>
+  <si>
+    <t>Best: 0.898978 using {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.500000 (0.002014) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.876577 (0.023520) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.550346 (0.119048) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.500901 (0.001802) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.884612 (0.027356) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.857794 (0.029983) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.889085 (0.023487) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.500901 (0.001802) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.881057 (0.024958) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.500000 (0.002014) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.500901 (0.001802) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.882827 (0.016269) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.862291 (0.038906) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.888232 (0.028024) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.500901 (0.001802) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.875676 (0.024092) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.582344 (0.109379) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.500901 (0.001802) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.884636 (0.031286) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.856910 (0.032401) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.887323 (0.023345) with: {'activation': 'softmax', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.859612 (0.039139) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.856902 (0.031793) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.810376 (0.031745) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.529464 (0.088416) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.876617 (0.031625) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.865870 (0.030584) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.888248 (0.027944) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.824799 (0.112076) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.859604 (0.035466) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.811285 (0.034053) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.500000 (0.002014) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.879271 (0.034944) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.859588 (0.025913) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.881073 (0.027050) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.860497 (0.027394) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.870335 (0.023633) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.816634 (0.034998) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.526794 (0.077399) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.875708 (0.027951) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.853346 (0.030611) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.871227 (0.034935) with: {'activation': 'softplus', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.873914 (0.035466) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.876593 (0.035199) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.837267 (0.038135) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.760272 (0.031519) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.880196 (0.037433) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.864069 (0.031089) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.881950 (0.028235) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.866739 (0.026392) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.882875 (0.032769) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.841739 (0.035396) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.761173 (0.052415) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.884669 (0.033508) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.869434 (0.027987) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.887355 (0.032457) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.865870 (0.031439) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.864977 (0.032004) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.839036 (0.034275) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.794281 (0.049527) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.881974 (0.032602) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.860505 (0.039780) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.870335 (0.030716) with: {'activation': 'softsign', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.895367 (0.029627) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.884620 (0.025485) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.841723 (0.033595) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.679786 (0.098315) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.890894 (0.027728) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.888248 (0.027075) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.888232 (0.024604) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.889986 (0.027457) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.881017 (0.033202) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.844410 (0.039694) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.690597 (0.076867) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.898978 (0.024501) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.881982 (0.028381) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.889977 (0.021306) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.885553 (0.026020) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.885561 (0.029737) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.839945 (0.037270) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.609846 (0.089256) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.880188 (0.023882) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.875716 (0.024951) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.898045 (0.018792) with: {'activation': 'relu', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.860473 (0.036966) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.871236 (0.031477) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.842608 (0.042102) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.778153 (0.043453) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.882859 (0.029702) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.864961 (0.031344) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.884653 (0.028578) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.870359 (0.030050) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.871227 (0.031981) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.839905 (0.040343) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.745954 (0.056305) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.881041 (0.022255) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.858687 (0.027965) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.887299 (0.026653) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.858695 (0.035093) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.874815 (0.027581) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.839921 (0.039287) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.762009 (0.042289) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.869450 (0.027609) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.864109 (0.032204) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.880204 (0.034959) with: {'activation': 'tanh', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.500901 (0.001802) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.858695 (0.031949) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.814873 (0.036082) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.500000 (0.002014) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.869434 (0.034416) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.854239 (0.035476) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.866779 (0.026446) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.500000 (0.002014) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.861382 (0.028610) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.813972 (0.036795) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.499992 (0.003468) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.865878 (0.028074) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.857810 (0.034910) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.863168 (0.032288) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.500000 (0.002014) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.861382 (0.037952) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.813964 (0.033405) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.499099 (0.001802) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.861438 (0.036275) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.852437 (0.033719) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.862283 (0.039430) with: {'activation': 'sigmoid', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.500901 (0.001802) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.868549 (0.035922) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.799598 (0.043350) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.499099 (0.001802) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.866755 (0.030792) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.856049 (0.034855) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.871219 (0.026587) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.500901 (0.001802) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.859596 (0.029366) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.807714 (0.035015) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.500901 (0.001802) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.865862 (0.035758) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.855116 (0.038329) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.859588 (0.034878) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.500901 (0.001802) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.868557 (0.036624) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.809443 (0.037272) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.499107 (0.014232) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.860481 (0.036916) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.850660 (0.036126) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.860489 (0.031718) with: {'activation': 'hard_sigmoid', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.851585 (0.036489) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.862307 (0.026377) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.833631 (0.034338) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.766570 (0.059907) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.856942 (0.025393) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.861414 (0.028457) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.857802 (0.029400) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.2, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.842608 (0.034621) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.858727 (0.031260) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.839937 (0.041904) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.773721 (0.032434) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.859620 (0.032304) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.850635 (0.030450) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.856041 (0.028487) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.25, 'optimizer': 'Nadam'}</t>
+  </si>
+  <si>
+    <t>0.856033 (0.031490) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'SGD'}</t>
+  </si>
+  <si>
+    <t>0.857802 (0.034778) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'RMSprop'}</t>
+  </si>
+  <si>
+    <t>0.830100 (0.030492) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adagrad'}</t>
+  </si>
+  <si>
+    <t>0.767447 (0.036197) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adadelta'}</t>
+  </si>
+  <si>
+    <t>0.855148 (0.030729) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adam'}</t>
+  </si>
+  <si>
+    <t>0.850635 (0.032566) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Adamax'}</t>
+  </si>
+  <si>
+    <t>0.864977 (0.027692) with: {'activation': 'linear', 'batch_size': 10, 'dropout_rate': 0.3, 'optimizer': 'Nadam'}</t>
   </si>
 </sst>
 </file>
@@ -35568,8 +36076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD463C8-F77E-6145-8889-288F74B4955F}">
   <dimension ref="A1:M1558"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40415,8 +40923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E75828-3DF0-6340-9528-11F47FDFEFED}">
   <dimension ref="A1:AB1004"/>
   <sheetViews>
-    <sheetView topLeftCell="R16" zoomScale="114" workbookViewId="0">
-      <selection activeCell="AG43" sqref="AG43"/>
+    <sheetView topLeftCell="Q15" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45555,4 +46063,864 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId37"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AD8ACB-3E1A-B24A-B6AB-29FA3030DA2B}">
+  <dimension ref="A1:A169"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>